--- a/CoreFramework/Files/StockSuite.xlsx
+++ b/CoreFramework/Files/StockSuite.xlsx
@@ -78,6 +78,9 @@
     <t>Chrome</t>
   </si>
   <si>
+    <t>ashish</t>
+  </si>
+  <si>
     <t>Stock Name</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
   </si>
   <si>
     <t>Tata Steel Ltd</t>
-  </si>
-  <si>
-    <t>Manish</t>
   </si>
   <si>
     <t>N</t>
@@ -571,7 +571,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -703,7 +703,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -791,7 +791,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -805,7 +805,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -819,7 +819,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -831,7 +831,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -847,7 +847,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -859,11 +859,11 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
@@ -885,7 +885,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -899,7 +899,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -911,7 +911,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
@@ -927,7 +927,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -939,11 +939,11 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,16 +991,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1011,19 +1011,19 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1039,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -1053,15 +1053,15 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1072,19 +1072,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
@@ -1098,27 +1098,27 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -1143,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
